--- a/backend/src/main/resources/initialDataFiles/bloodPressureReadings.xlsx
+++ b/backend/src/main/resources/initialDataFiles/bloodPressureReadings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Java\SpringBootProjects\MedTracker\src\main\resources\initialDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Java\SpringBootProjects\medtracker_v2_rest_api\backend\src\main\resources\initialDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2919C7D-EDF2-4508-915D-0DED862492E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9997F994-220F-4715-BBA7-5D1346428FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-60" windowWidth="35200" windowHeight="21820" xr2:uid="{BE4ABE33-A413-46B3-BA4A-8E7C67A5CF00}"/>
+    <workbookView xWindow="15012" yWindow="3492" windowWidth="23676" windowHeight="21684" xr2:uid="{BE4ABE33-A413-46B3-BA4A-8E7C67A5CF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -119,13 +119,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -442,19 +443,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129D93C5-89D8-403D-9040-DB491AF7D8F0}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="A343" sqref="A343:F349"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45582</v>
       </c>
@@ -494,7 +495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45583</v>
       </c>
@@ -514,7 +515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45584</v>
       </c>
@@ -534,7 +535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45585</v>
       </c>
@@ -554,7 +555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45586</v>
       </c>
@@ -574,7 +575,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45587</v>
       </c>
@@ -594,7 +595,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45588</v>
       </c>
@@ -614,7 +615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45589</v>
       </c>
@@ -634,7 +635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45590</v>
       </c>
@@ -654,7 +655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45591</v>
       </c>
@@ -674,7 +675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45592</v>
       </c>
@@ -694,7 +695,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45593</v>
       </c>
@@ -714,7 +715,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45594</v>
       </c>
@@ -734,7 +735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45595</v>
       </c>
@@ -754,7 +755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45596</v>
       </c>
@@ -774,7 +775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45597</v>
       </c>
@@ -794,7 +795,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45598</v>
       </c>
@@ -814,7 +815,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45599</v>
       </c>
@@ -834,7 +835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45599</v>
       </c>
@@ -854,7 +855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45599</v>
       </c>
@@ -874,7 +875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45600</v>
       </c>
@@ -894,7 +895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45600</v>
       </c>
@@ -914,7 +915,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45600</v>
       </c>
@@ -934,7 +935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45601</v>
       </c>
@@ -954,7 +955,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45601</v>
       </c>
@@ -974,7 +975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45601</v>
       </c>
@@ -994,7 +995,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45602</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45602</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45602</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45603</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45603</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45603</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45604</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45604</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45604</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45605</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45605</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45605</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45606</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45606</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45607</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45607</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45607</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45608</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45608</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45608</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45609</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45609</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45609</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45610</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45610</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45610</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45611</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45611</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45611</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45612</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45612</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45612</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45613</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45613</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45613</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45614</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45614</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45614</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45615</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45615</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45615</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45616</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45616</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45616</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45617</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45617</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45618</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45618</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45618</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45619</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45620</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45620</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45620</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45621</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45621</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45621</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45622</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45622</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45622</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45623</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45623</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45623</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45624</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45624</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45625</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45625</v>
       </c>
@@ -2314,9 +2315,4990 @@
         <v>61</v>
       </c>
     </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D94">
+        <v>122</v>
+      </c>
+      <c r="E94">
+        <v>82</v>
+      </c>
+      <c r="F94">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D95">
+        <v>121</v>
+      </c>
+      <c r="E95">
+        <v>83</v>
+      </c>
+      <c r="F95">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D96">
+        <v>120</v>
+      </c>
+      <c r="E96">
+        <v>84</v>
+      </c>
+      <c r="F96">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D97">
+        <v>119</v>
+      </c>
+      <c r="E97">
+        <v>85</v>
+      </c>
+      <c r="F97">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D98">
+        <v>118</v>
+      </c>
+      <c r="E98">
+        <v>86</v>
+      </c>
+      <c r="F98">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D99">
+        <v>117</v>
+      </c>
+      <c r="E99">
+        <v>87</v>
+      </c>
+      <c r="F99">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D100">
+        <v>116</v>
+      </c>
+      <c r="E100">
+        <v>88</v>
+      </c>
+      <c r="F100">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D101">
+        <v>115</v>
+      </c>
+      <c r="E101">
+        <v>89</v>
+      </c>
+      <c r="F101">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D102">
+        <v>114</v>
+      </c>
+      <c r="E102">
+        <v>90</v>
+      </c>
+      <c r="F102">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D103">
+        <v>113</v>
+      </c>
+      <c r="E103">
+        <v>91</v>
+      </c>
+      <c r="F103">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D104">
+        <v>114</v>
+      </c>
+      <c r="E104">
+        <v>90</v>
+      </c>
+      <c r="F104">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D105">
+        <v>115</v>
+      </c>
+      <c r="E105">
+        <v>89</v>
+      </c>
+      <c r="F105">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D106">
+        <v>116</v>
+      </c>
+      <c r="E106">
+        <v>88</v>
+      </c>
+      <c r="F106">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D107">
+        <v>117</v>
+      </c>
+      <c r="E107">
+        <v>87</v>
+      </c>
+      <c r="F107">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D108">
+        <v>118</v>
+      </c>
+      <c r="E108">
+        <v>86</v>
+      </c>
+      <c r="F108">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D109">
+        <v>119</v>
+      </c>
+      <c r="E109">
+        <v>85</v>
+      </c>
+      <c r="F109">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D110">
+        <v>120</v>
+      </c>
+      <c r="E110">
+        <v>84</v>
+      </c>
+      <c r="F110">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D111">
+        <v>121</v>
+      </c>
+      <c r="E111">
+        <v>83</v>
+      </c>
+      <c r="F111">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D112">
+        <v>122</v>
+      </c>
+      <c r="E112">
+        <v>82</v>
+      </c>
+      <c r="F112">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D113">
+        <v>123</v>
+      </c>
+      <c r="E113">
+        <v>81</v>
+      </c>
+      <c r="F113">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D114">
+        <v>124</v>
+      </c>
+      <c r="E114">
+        <v>80</v>
+      </c>
+      <c r="F114">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D115">
+        <v>125</v>
+      </c>
+      <c r="E115">
+        <v>79</v>
+      </c>
+      <c r="F115">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D116">
+        <v>126</v>
+      </c>
+      <c r="E116">
+        <v>78</v>
+      </c>
+      <c r="F116">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D117">
+        <v>127</v>
+      </c>
+      <c r="E117">
+        <v>77</v>
+      </c>
+      <c r="F117">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D118">
+        <v>128</v>
+      </c>
+      <c r="E118">
+        <v>76</v>
+      </c>
+      <c r="F118">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D119">
+        <v>129</v>
+      </c>
+      <c r="E119">
+        <v>75</v>
+      </c>
+      <c r="F119">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D120">
+        <v>122</v>
+      </c>
+      <c r="E120">
+        <v>82</v>
+      </c>
+      <c r="F120">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D121">
+        <v>122</v>
+      </c>
+      <c r="E121">
+        <v>82</v>
+      </c>
+      <c r="F121">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D122">
+        <v>123</v>
+      </c>
+      <c r="E122">
+        <v>78</v>
+      </c>
+      <c r="F122">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D123">
+        <v>124</v>
+      </c>
+      <c r="E123">
+        <v>79</v>
+      </c>
+      <c r="F123">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D124">
+        <v>125</v>
+      </c>
+      <c r="E124">
+        <v>80</v>
+      </c>
+      <c r="F124">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D125">
+        <v>126</v>
+      </c>
+      <c r="E125">
+        <v>81</v>
+      </c>
+      <c r="F125">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D126">
+        <v>127</v>
+      </c>
+      <c r="E126">
+        <v>82</v>
+      </c>
+      <c r="F126">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D127">
+        <v>122</v>
+      </c>
+      <c r="E127">
+        <v>82</v>
+      </c>
+      <c r="F127">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D128">
+        <v>121</v>
+      </c>
+      <c r="E128">
+        <v>83</v>
+      </c>
+      <c r="F128">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D129">
+        <v>120</v>
+      </c>
+      <c r="E129">
+        <v>84</v>
+      </c>
+      <c r="F129">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D130">
+        <v>119</v>
+      </c>
+      <c r="E130">
+        <v>85</v>
+      </c>
+      <c r="F130">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D131">
+        <v>118</v>
+      </c>
+      <c r="E131">
+        <v>86</v>
+      </c>
+      <c r="F131">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D132">
+        <v>117</v>
+      </c>
+      <c r="E132">
+        <v>87</v>
+      </c>
+      <c r="F132">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D133">
+        <v>116</v>
+      </c>
+      <c r="E133">
+        <v>88</v>
+      </c>
+      <c r="F133">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D134">
+        <v>115</v>
+      </c>
+      <c r="E134">
+        <v>89</v>
+      </c>
+      <c r="F134">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D135">
+        <v>114</v>
+      </c>
+      <c r="E135">
+        <v>90</v>
+      </c>
+      <c r="F135">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D136">
+        <v>113</v>
+      </c>
+      <c r="E136">
+        <v>91</v>
+      </c>
+      <c r="F136">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D137">
+        <v>114</v>
+      </c>
+      <c r="E137">
+        <v>90</v>
+      </c>
+      <c r="F137">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D138">
+        <v>115</v>
+      </c>
+      <c r="E138">
+        <v>89</v>
+      </c>
+      <c r="F138">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D139">
+        <v>116</v>
+      </c>
+      <c r="E139">
+        <v>88</v>
+      </c>
+      <c r="F139">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D140">
+        <v>117</v>
+      </c>
+      <c r="E140">
+        <v>87</v>
+      </c>
+      <c r="F140">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D141">
+        <v>118</v>
+      </c>
+      <c r="E141">
+        <v>86</v>
+      </c>
+      <c r="F141">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D142">
+        <v>119</v>
+      </c>
+      <c r="E142">
+        <v>85</v>
+      </c>
+      <c r="F142">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D143">
+        <v>120</v>
+      </c>
+      <c r="E143">
+        <v>84</v>
+      </c>
+      <c r="F143">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D144">
+        <v>121</v>
+      </c>
+      <c r="E144">
+        <v>83</v>
+      </c>
+      <c r="F144">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D145">
+        <v>122</v>
+      </c>
+      <c r="E145">
+        <v>82</v>
+      </c>
+      <c r="F145">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D146">
+        <v>123</v>
+      </c>
+      <c r="E146">
+        <v>81</v>
+      </c>
+      <c r="F146">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D147">
+        <v>124</v>
+      </c>
+      <c r="E147">
+        <v>80</v>
+      </c>
+      <c r="F147">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D148">
+        <v>125</v>
+      </c>
+      <c r="E148">
+        <v>79</v>
+      </c>
+      <c r="F148">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D149">
+        <v>126</v>
+      </c>
+      <c r="E149">
+        <v>78</v>
+      </c>
+      <c r="F149">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D150">
+        <v>127</v>
+      </c>
+      <c r="E150">
+        <v>77</v>
+      </c>
+      <c r="F150">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D151">
+        <v>128</v>
+      </c>
+      <c r="E151">
+        <v>76</v>
+      </c>
+      <c r="F151">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D152">
+        <v>129</v>
+      </c>
+      <c r="E152">
+        <v>75</v>
+      </c>
+      <c r="F152">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D153">
+        <v>122</v>
+      </c>
+      <c r="E153">
+        <v>82</v>
+      </c>
+      <c r="F153">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D154">
+        <v>122</v>
+      </c>
+      <c r="E154">
+        <v>82</v>
+      </c>
+      <c r="F154">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D155">
+        <v>123</v>
+      </c>
+      <c r="E155">
+        <v>78</v>
+      </c>
+      <c r="F155">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D156">
+        <v>124</v>
+      </c>
+      <c r="E156">
+        <v>79</v>
+      </c>
+      <c r="F156">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D157">
+        <v>125</v>
+      </c>
+      <c r="E157">
+        <v>80</v>
+      </c>
+      <c r="F157">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D158">
+        <v>126</v>
+      </c>
+      <c r="E158">
+        <v>81</v>
+      </c>
+      <c r="F158">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D159">
+        <v>127</v>
+      </c>
+      <c r="E159">
+        <v>82</v>
+      </c>
+      <c r="F159">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D160">
+        <v>122</v>
+      </c>
+      <c r="E160">
+        <v>82</v>
+      </c>
+      <c r="F160">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D161">
+        <v>121</v>
+      </c>
+      <c r="E161">
+        <v>83</v>
+      </c>
+      <c r="F161">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D162">
+        <v>120</v>
+      </c>
+      <c r="E162">
+        <v>84</v>
+      </c>
+      <c r="F162">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D163">
+        <v>119</v>
+      </c>
+      <c r="E163">
+        <v>85</v>
+      </c>
+      <c r="F163">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D164">
+        <v>118</v>
+      </c>
+      <c r="E164">
+        <v>86</v>
+      </c>
+      <c r="F164">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D165">
+        <v>117</v>
+      </c>
+      <c r="E165">
+        <v>87</v>
+      </c>
+      <c r="F165">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D166">
+        <v>116</v>
+      </c>
+      <c r="E166">
+        <v>88</v>
+      </c>
+      <c r="F166">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D167">
+        <v>115</v>
+      </c>
+      <c r="E167">
+        <v>89</v>
+      </c>
+      <c r="F167">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D168">
+        <v>114</v>
+      </c>
+      <c r="E168">
+        <v>90</v>
+      </c>
+      <c r="F168">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D169">
+        <v>113</v>
+      </c>
+      <c r="E169">
+        <v>91</v>
+      </c>
+      <c r="F169">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D170">
+        <v>114</v>
+      </c>
+      <c r="E170">
+        <v>90</v>
+      </c>
+      <c r="F170">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D171">
+        <v>115</v>
+      </c>
+      <c r="E171">
+        <v>89</v>
+      </c>
+      <c r="F171">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D172">
+        <v>116</v>
+      </c>
+      <c r="E172">
+        <v>88</v>
+      </c>
+      <c r="F172">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D173">
+        <v>117</v>
+      </c>
+      <c r="E173">
+        <v>87</v>
+      </c>
+      <c r="F173">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D174">
+        <v>118</v>
+      </c>
+      <c r="E174">
+        <v>86</v>
+      </c>
+      <c r="F174">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D175">
+        <v>119</v>
+      </c>
+      <c r="E175">
+        <v>85</v>
+      </c>
+      <c r="F175">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D176">
+        <v>120</v>
+      </c>
+      <c r="E176">
+        <v>84</v>
+      </c>
+      <c r="F176">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D177">
+        <v>121</v>
+      </c>
+      <c r="E177">
+        <v>83</v>
+      </c>
+      <c r="F177">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D178">
+        <v>122</v>
+      </c>
+      <c r="E178">
+        <v>82</v>
+      </c>
+      <c r="F178">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D179">
+        <v>123</v>
+      </c>
+      <c r="E179">
+        <v>81</v>
+      </c>
+      <c r="F179">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D180">
+        <v>124</v>
+      </c>
+      <c r="E180">
+        <v>80</v>
+      </c>
+      <c r="F180">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D181">
+        <v>125</v>
+      </c>
+      <c r="E181">
+        <v>79</v>
+      </c>
+      <c r="F181">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D182">
+        <v>126</v>
+      </c>
+      <c r="E182">
+        <v>78</v>
+      </c>
+      <c r="F182">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D183">
+        <v>127</v>
+      </c>
+      <c r="E183">
+        <v>77</v>
+      </c>
+      <c r="F183">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D184">
+        <v>128</v>
+      </c>
+      <c r="E184">
+        <v>76</v>
+      </c>
+      <c r="F184">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D185">
+        <v>129</v>
+      </c>
+      <c r="E185">
+        <v>75</v>
+      </c>
+      <c r="F185">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D186">
+        <v>122</v>
+      </c>
+      <c r="E186">
+        <v>82</v>
+      </c>
+      <c r="F186">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D187">
+        <v>122</v>
+      </c>
+      <c r="E187">
+        <v>82</v>
+      </c>
+      <c r="F187">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D188">
+        <v>123</v>
+      </c>
+      <c r="E188">
+        <v>78</v>
+      </c>
+      <c r="F188">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D189">
+        <v>124</v>
+      </c>
+      <c r="E189">
+        <v>79</v>
+      </c>
+      <c r="F189">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D190">
+        <v>125</v>
+      </c>
+      <c r="E190">
+        <v>80</v>
+      </c>
+      <c r="F190">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D191">
+        <v>126</v>
+      </c>
+      <c r="E191">
+        <v>81</v>
+      </c>
+      <c r="F191">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D192">
+        <v>127</v>
+      </c>
+      <c r="E192">
+        <v>82</v>
+      </c>
+      <c r="F192">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D193">
+        <v>122</v>
+      </c>
+      <c r="E193">
+        <v>82</v>
+      </c>
+      <c r="F193">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D194">
+        <v>121</v>
+      </c>
+      <c r="E194">
+        <v>83</v>
+      </c>
+      <c r="F194">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D195">
+        <v>120</v>
+      </c>
+      <c r="E195">
+        <v>84</v>
+      </c>
+      <c r="F195">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D196">
+        <v>119</v>
+      </c>
+      <c r="E196">
+        <v>85</v>
+      </c>
+      <c r="F196">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D197">
+        <v>118</v>
+      </c>
+      <c r="E197">
+        <v>86</v>
+      </c>
+      <c r="F197">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D198">
+        <v>117</v>
+      </c>
+      <c r="E198">
+        <v>87</v>
+      </c>
+      <c r="F198">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D199">
+        <v>116</v>
+      </c>
+      <c r="E199">
+        <v>88</v>
+      </c>
+      <c r="F199">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D200">
+        <v>115</v>
+      </c>
+      <c r="E200">
+        <v>89</v>
+      </c>
+      <c r="F200">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D201">
+        <v>114</v>
+      </c>
+      <c r="E201">
+        <v>90</v>
+      </c>
+      <c r="F201">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D202">
+        <v>113</v>
+      </c>
+      <c r="E202">
+        <v>91</v>
+      </c>
+      <c r="F202">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D203">
+        <v>114</v>
+      </c>
+      <c r="E203">
+        <v>90</v>
+      </c>
+      <c r="F203">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D204">
+        <v>115</v>
+      </c>
+      <c r="E204">
+        <v>89</v>
+      </c>
+      <c r="F204">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D205">
+        <v>116</v>
+      </c>
+      <c r="E205">
+        <v>88</v>
+      </c>
+      <c r="F205">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D206">
+        <v>117</v>
+      </c>
+      <c r="E206">
+        <v>87</v>
+      </c>
+      <c r="F206">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D207">
+        <v>118</v>
+      </c>
+      <c r="E207">
+        <v>86</v>
+      </c>
+      <c r="F207">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D208">
+        <v>119</v>
+      </c>
+      <c r="E208">
+        <v>85</v>
+      </c>
+      <c r="F208">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D209">
+        <v>120</v>
+      </c>
+      <c r="E209">
+        <v>84</v>
+      </c>
+      <c r="F209">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D210">
+        <v>121</v>
+      </c>
+      <c r="E210">
+        <v>83</v>
+      </c>
+      <c r="F210">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D211">
+        <v>122</v>
+      </c>
+      <c r="E211">
+        <v>82</v>
+      </c>
+      <c r="F211">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D212">
+        <v>123</v>
+      </c>
+      <c r="E212">
+        <v>81</v>
+      </c>
+      <c r="F212">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D213">
+        <v>124</v>
+      </c>
+      <c r="E213">
+        <v>80</v>
+      </c>
+      <c r="F213">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D214">
+        <v>125</v>
+      </c>
+      <c r="E214">
+        <v>79</v>
+      </c>
+      <c r="F214">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D215">
+        <v>126</v>
+      </c>
+      <c r="E215">
+        <v>78</v>
+      </c>
+      <c r="F215">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D216">
+        <v>127</v>
+      </c>
+      <c r="E216">
+        <v>77</v>
+      </c>
+      <c r="F216">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D217">
+        <v>128</v>
+      </c>
+      <c r="E217">
+        <v>76</v>
+      </c>
+      <c r="F217">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D218">
+        <v>129</v>
+      </c>
+      <c r="E218">
+        <v>75</v>
+      </c>
+      <c r="F218">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D219">
+        <v>122</v>
+      </c>
+      <c r="E219">
+        <v>82</v>
+      </c>
+      <c r="F219">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D220">
+        <v>122</v>
+      </c>
+      <c r="E220">
+        <v>82</v>
+      </c>
+      <c r="F220">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D221">
+        <v>123</v>
+      </c>
+      <c r="E221">
+        <v>78</v>
+      </c>
+      <c r="F221">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D222">
+        <v>124</v>
+      </c>
+      <c r="E222">
+        <v>79</v>
+      </c>
+      <c r="F222">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D223">
+        <v>125</v>
+      </c>
+      <c r="E223">
+        <v>80</v>
+      </c>
+      <c r="F223">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D224">
+        <v>126</v>
+      </c>
+      <c r="E224">
+        <v>81</v>
+      </c>
+      <c r="F224">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D225">
+        <v>127</v>
+      </c>
+      <c r="E225">
+        <v>82</v>
+      </c>
+      <c r="F225">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D226">
+        <v>122</v>
+      </c>
+      <c r="E226">
+        <v>82</v>
+      </c>
+      <c r="F226">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D227">
+        <v>121</v>
+      </c>
+      <c r="E227">
+        <v>83</v>
+      </c>
+      <c r="F227">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D228">
+        <v>120</v>
+      </c>
+      <c r="E228">
+        <v>84</v>
+      </c>
+      <c r="F228">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D229">
+        <v>119</v>
+      </c>
+      <c r="E229">
+        <v>85</v>
+      </c>
+      <c r="F229">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D230">
+        <v>118</v>
+      </c>
+      <c r="E230">
+        <v>86</v>
+      </c>
+      <c r="F230">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D231">
+        <v>117</v>
+      </c>
+      <c r="E231">
+        <v>87</v>
+      </c>
+      <c r="F231">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D232">
+        <v>116</v>
+      </c>
+      <c r="E232">
+        <v>88</v>
+      </c>
+      <c r="F232">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D233">
+        <v>115</v>
+      </c>
+      <c r="E233">
+        <v>89</v>
+      </c>
+      <c r="F233">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D234">
+        <v>114</v>
+      </c>
+      <c r="E234">
+        <v>90</v>
+      </c>
+      <c r="F234">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D235">
+        <v>113</v>
+      </c>
+      <c r="E235">
+        <v>91</v>
+      </c>
+      <c r="F235">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D236">
+        <v>114</v>
+      </c>
+      <c r="E236">
+        <v>90</v>
+      </c>
+      <c r="F236">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D237">
+        <v>115</v>
+      </c>
+      <c r="E237">
+        <v>89</v>
+      </c>
+      <c r="F237">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D238">
+        <v>116</v>
+      </c>
+      <c r="E238">
+        <v>88</v>
+      </c>
+      <c r="F238">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D239">
+        <v>117</v>
+      </c>
+      <c r="E239">
+        <v>87</v>
+      </c>
+      <c r="F239">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D240">
+        <v>118</v>
+      </c>
+      <c r="E240">
+        <v>86</v>
+      </c>
+      <c r="F240">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D241">
+        <v>119</v>
+      </c>
+      <c r="E241">
+        <v>85</v>
+      </c>
+      <c r="F241">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D242">
+        <v>120</v>
+      </c>
+      <c r="E242">
+        <v>84</v>
+      </c>
+      <c r="F242">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D243">
+        <v>121</v>
+      </c>
+      <c r="E243">
+        <v>83</v>
+      </c>
+      <c r="F243">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D244">
+        <v>122</v>
+      </c>
+      <c r="E244">
+        <v>82</v>
+      </c>
+      <c r="F244">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D245">
+        <v>123</v>
+      </c>
+      <c r="E245">
+        <v>81</v>
+      </c>
+      <c r="F245">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D246">
+        <v>124</v>
+      </c>
+      <c r="E246">
+        <v>80</v>
+      </c>
+      <c r="F246">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D247">
+        <v>125</v>
+      </c>
+      <c r="E247">
+        <v>79</v>
+      </c>
+      <c r="F247">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D248">
+        <v>126</v>
+      </c>
+      <c r="E248">
+        <v>78</v>
+      </c>
+      <c r="F248">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D249">
+        <v>127</v>
+      </c>
+      <c r="E249">
+        <v>77</v>
+      </c>
+      <c r="F249">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D250">
+        <v>128</v>
+      </c>
+      <c r="E250">
+        <v>76</v>
+      </c>
+      <c r="F250">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D251">
+        <v>129</v>
+      </c>
+      <c r="E251">
+        <v>75</v>
+      </c>
+      <c r="F251">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D252">
+        <v>122</v>
+      </c>
+      <c r="E252">
+        <v>82</v>
+      </c>
+      <c r="F252">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D253">
+        <v>122</v>
+      </c>
+      <c r="E253">
+        <v>82</v>
+      </c>
+      <c r="F253">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D254">
+        <v>123</v>
+      </c>
+      <c r="E254">
+        <v>78</v>
+      </c>
+      <c r="F254">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D255">
+        <v>124</v>
+      </c>
+      <c r="E255">
+        <v>79</v>
+      </c>
+      <c r="F255">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D256">
+        <v>125</v>
+      </c>
+      <c r="E256">
+        <v>80</v>
+      </c>
+      <c r="F256">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D257">
+        <v>126</v>
+      </c>
+      <c r="E257">
+        <v>81</v>
+      </c>
+      <c r="F257">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D258">
+        <v>127</v>
+      </c>
+      <c r="E258">
+        <v>82</v>
+      </c>
+      <c r="F258">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D259">
+        <v>122</v>
+      </c>
+      <c r="E259">
+        <v>82</v>
+      </c>
+      <c r="F259">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D260">
+        <v>121</v>
+      </c>
+      <c r="E260">
+        <v>83</v>
+      </c>
+      <c r="F260">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D261">
+        <v>120</v>
+      </c>
+      <c r="E261">
+        <v>84</v>
+      </c>
+      <c r="F261">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D262">
+        <v>119</v>
+      </c>
+      <c r="E262">
+        <v>85</v>
+      </c>
+      <c r="F262">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D263">
+        <v>118</v>
+      </c>
+      <c r="E263">
+        <v>86</v>
+      </c>
+      <c r="F263">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D264">
+        <v>117</v>
+      </c>
+      <c r="E264">
+        <v>87</v>
+      </c>
+      <c r="F264">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D265">
+        <v>116</v>
+      </c>
+      <c r="E265">
+        <v>88</v>
+      </c>
+      <c r="F265">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D266">
+        <v>115</v>
+      </c>
+      <c r="E266">
+        <v>89</v>
+      </c>
+      <c r="F266">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D267">
+        <v>114</v>
+      </c>
+      <c r="E267">
+        <v>90</v>
+      </c>
+      <c r="F267">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D268">
+        <v>113</v>
+      </c>
+      <c r="E268">
+        <v>91</v>
+      </c>
+      <c r="F268">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D269">
+        <v>114</v>
+      </c>
+      <c r="E269">
+        <v>90</v>
+      </c>
+      <c r="F269">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D270">
+        <v>115</v>
+      </c>
+      <c r="E270">
+        <v>89</v>
+      </c>
+      <c r="F270">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D271">
+        <v>116</v>
+      </c>
+      <c r="E271">
+        <v>88</v>
+      </c>
+      <c r="F271">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D272">
+        <v>117</v>
+      </c>
+      <c r="E272">
+        <v>87</v>
+      </c>
+      <c r="F272">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D273">
+        <v>118</v>
+      </c>
+      <c r="E273">
+        <v>86</v>
+      </c>
+      <c r="F273">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D274">
+        <v>119</v>
+      </c>
+      <c r="E274">
+        <v>85</v>
+      </c>
+      <c r="F274">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D275">
+        <v>120</v>
+      </c>
+      <c r="E275">
+        <v>84</v>
+      </c>
+      <c r="F275">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D276">
+        <v>121</v>
+      </c>
+      <c r="E276">
+        <v>83</v>
+      </c>
+      <c r="F276">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D277">
+        <v>122</v>
+      </c>
+      <c r="E277">
+        <v>82</v>
+      </c>
+      <c r="F277">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D278">
+        <v>123</v>
+      </c>
+      <c r="E278">
+        <v>81</v>
+      </c>
+      <c r="F278">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D279">
+        <v>124</v>
+      </c>
+      <c r="E279">
+        <v>80</v>
+      </c>
+      <c r="F279">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D280">
+        <v>125</v>
+      </c>
+      <c r="E280">
+        <v>79</v>
+      </c>
+      <c r="F280">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C281" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D281">
+        <v>126</v>
+      </c>
+      <c r="E281">
+        <v>78</v>
+      </c>
+      <c r="F281">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D282">
+        <v>127</v>
+      </c>
+      <c r="E282">
+        <v>77</v>
+      </c>
+      <c r="F282">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D283">
+        <v>128</v>
+      </c>
+      <c r="E283">
+        <v>76</v>
+      </c>
+      <c r="F283">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D284">
+        <v>129</v>
+      </c>
+      <c r="E284">
+        <v>75</v>
+      </c>
+      <c r="F284">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D285">
+        <v>122</v>
+      </c>
+      <c r="E285">
+        <v>82</v>
+      </c>
+      <c r="F285">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D286">
+        <v>122</v>
+      </c>
+      <c r="E286">
+        <v>82</v>
+      </c>
+      <c r="F286">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D287">
+        <v>123</v>
+      </c>
+      <c r="E287">
+        <v>78</v>
+      </c>
+      <c r="F287">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D288">
+        <v>124</v>
+      </c>
+      <c r="E288">
+        <v>79</v>
+      </c>
+      <c r="F288">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D289">
+        <v>125</v>
+      </c>
+      <c r="E289">
+        <v>80</v>
+      </c>
+      <c r="F289">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D290">
+        <v>126</v>
+      </c>
+      <c r="E290">
+        <v>81</v>
+      </c>
+      <c r="F290">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D291">
+        <v>127</v>
+      </c>
+      <c r="E291">
+        <v>82</v>
+      </c>
+      <c r="F291">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D292">
+        <v>122</v>
+      </c>
+      <c r="E292">
+        <v>82</v>
+      </c>
+      <c r="F292">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D293">
+        <v>121</v>
+      </c>
+      <c r="E293">
+        <v>83</v>
+      </c>
+      <c r="F293">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D294">
+        <v>120</v>
+      </c>
+      <c r="E294">
+        <v>84</v>
+      </c>
+      <c r="F294">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D295">
+        <v>119</v>
+      </c>
+      <c r="E295">
+        <v>85</v>
+      </c>
+      <c r="F295">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D296">
+        <v>118</v>
+      </c>
+      <c r="E296">
+        <v>86</v>
+      </c>
+      <c r="F296">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D297">
+        <v>117</v>
+      </c>
+      <c r="E297">
+        <v>87</v>
+      </c>
+      <c r="F297">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D298">
+        <v>116</v>
+      </c>
+      <c r="E298">
+        <v>88</v>
+      </c>
+      <c r="F298">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D299">
+        <v>115</v>
+      </c>
+      <c r="E299">
+        <v>89</v>
+      </c>
+      <c r="F299">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D300">
+        <v>114</v>
+      </c>
+      <c r="E300">
+        <v>90</v>
+      </c>
+      <c r="F300">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D301">
+        <v>113</v>
+      </c>
+      <c r="E301">
+        <v>91</v>
+      </c>
+      <c r="F301">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C302" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D302">
+        <v>114</v>
+      </c>
+      <c r="E302">
+        <v>90</v>
+      </c>
+      <c r="F302">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D303">
+        <v>115</v>
+      </c>
+      <c r="E303">
+        <v>89</v>
+      </c>
+      <c r="F303">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>45696</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D304">
+        <v>116</v>
+      </c>
+      <c r="E304">
+        <v>88</v>
+      </c>
+      <c r="F304">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>45696</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D305">
+        <v>117</v>
+      </c>
+      <c r="E305">
+        <v>87</v>
+      </c>
+      <c r="F305">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>45696</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D306">
+        <v>118</v>
+      </c>
+      <c r="E306">
+        <v>86</v>
+      </c>
+      <c r="F306">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>45697</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D307">
+        <v>119</v>
+      </c>
+      <c r="E307">
+        <v>85</v>
+      </c>
+      <c r="F307">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>45697</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C308" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D308">
+        <v>120</v>
+      </c>
+      <c r="E308">
+        <v>84</v>
+      </c>
+      <c r="F308">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>45697</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D309">
+        <v>123</v>
+      </c>
+      <c r="E309">
+        <v>78</v>
+      </c>
+      <c r="F309">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D310">
+        <v>123</v>
+      </c>
+      <c r="E310">
+        <v>78</v>
+      </c>
+      <c r="F310">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D311">
+        <v>124</v>
+      </c>
+      <c r="E311">
+        <v>79</v>
+      </c>
+      <c r="F311">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D312">
+        <v>125</v>
+      </c>
+      <c r="E312">
+        <v>80</v>
+      </c>
+      <c r="F312">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D313">
+        <v>126</v>
+      </c>
+      <c r="E313">
+        <v>81</v>
+      </c>
+      <c r="F313">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D314">
+        <v>127</v>
+      </c>
+      <c r="E314">
+        <v>82</v>
+      </c>
+      <c r="F314">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D315">
+        <v>122</v>
+      </c>
+      <c r="E315">
+        <v>82</v>
+      </c>
+      <c r="F315">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D316">
+        <v>121</v>
+      </c>
+      <c r="E316">
+        <v>83</v>
+      </c>
+      <c r="F316">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C317" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D317">
+        <v>120</v>
+      </c>
+      <c r="E317">
+        <v>84</v>
+      </c>
+      <c r="F317">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D318">
+        <v>119</v>
+      </c>
+      <c r="E318">
+        <v>85</v>
+      </c>
+      <c r="F318">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D319">
+        <v>118</v>
+      </c>
+      <c r="E319">
+        <v>86</v>
+      </c>
+      <c r="F319">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D320">
+        <v>117</v>
+      </c>
+      <c r="E320">
+        <v>87</v>
+      </c>
+      <c r="F320">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D321">
+        <v>116</v>
+      </c>
+      <c r="E321">
+        <v>88</v>
+      </c>
+      <c r="F321">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C322" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D322">
+        <v>115</v>
+      </c>
+      <c r="E322">
+        <v>89</v>
+      </c>
+      <c r="F322">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D323">
+        <v>114</v>
+      </c>
+      <c r="E323">
+        <v>90</v>
+      </c>
+      <c r="F323">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D324">
+        <v>113</v>
+      </c>
+      <c r="E324">
+        <v>91</v>
+      </c>
+      <c r="F324">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D325">
+        <v>114</v>
+      </c>
+      <c r="E325">
+        <v>90</v>
+      </c>
+      <c r="F325">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C326" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D326">
+        <v>115</v>
+      </c>
+      <c r="E326">
+        <v>89</v>
+      </c>
+      <c r="F326">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D327">
+        <v>116</v>
+      </c>
+      <c r="E327">
+        <v>88</v>
+      </c>
+      <c r="F327">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D328">
+        <v>117</v>
+      </c>
+      <c r="E328">
+        <v>87</v>
+      </c>
+      <c r="F328">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D329">
+        <v>118</v>
+      </c>
+      <c r="E329">
+        <v>86</v>
+      </c>
+      <c r="F329">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D330">
+        <v>119</v>
+      </c>
+      <c r="E330">
+        <v>85</v>
+      </c>
+      <c r="F330">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D331">
+        <v>120</v>
+      </c>
+      <c r="E331">
+        <v>84</v>
+      </c>
+      <c r="F331">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D332">
+        <v>121</v>
+      </c>
+      <c r="E332">
+        <v>83</v>
+      </c>
+      <c r="F332">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D333">
+        <v>122</v>
+      </c>
+      <c r="E333">
+        <v>82</v>
+      </c>
+      <c r="F333">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D334">
+        <v>123</v>
+      </c>
+      <c r="E334">
+        <v>81</v>
+      </c>
+      <c r="F334">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D335">
+        <v>124</v>
+      </c>
+      <c r="E335">
+        <v>80</v>
+      </c>
+      <c r="F335">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D336">
+        <v>125</v>
+      </c>
+      <c r="E336">
+        <v>79</v>
+      </c>
+      <c r="F336">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D337">
+        <v>126</v>
+      </c>
+      <c r="E337">
+        <v>78</v>
+      </c>
+      <c r="F337">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D338">
+        <v>127</v>
+      </c>
+      <c r="E338">
+        <v>77</v>
+      </c>
+      <c r="F338">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D339">
+        <v>128</v>
+      </c>
+      <c r="E339">
+        <v>76</v>
+      </c>
+      <c r="F339">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C340" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D340">
+        <v>129</v>
+      </c>
+      <c r="E340">
+        <v>75</v>
+      </c>
+      <c r="F340">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C341" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D341">
+        <v>122</v>
+      </c>
+      <c r="E341">
+        <v>82</v>
+      </c>
+      <c r="F341">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D342">
+        <v>122</v>
+      </c>
+      <c r="E342">
+        <v>82</v>
+      </c>
+      <c r="F342">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F93">
-    <sortCondition ref="A2:A93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F342">
+    <sortCondition ref="A2:A342"/>
+    <sortCondition ref="C2:C342"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
